--- a/old_database/crypto/fastqFiles/fastq_1800.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_1800.xlsx
@@ -37,7 +37,7 @@
     <t>10.04.16</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1800</t>
   </si>
   <si>
     <t>sequence/run_1800_samples/1800_Brent_1_TGAGGTT_S1_R1_001.fastq.gz</t>
